--- a/example_data/EMA/label_corrected/elmiron-epar-product-information_en.xlsx
+++ b/example_data/EMA/label_corrected/elmiron-epar-product-information_en.xlsx
@@ -759,7 +759,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>renal || populations - geriatric || hepatic</t>
+          <t>populations - geriatric || hepatic || renal</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>renal || hepatic || warnings</t>
+          <t>hepatic || renal || warnings</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
